--- a/Data/Season2/Encounters - Double observer - no distance (Responses).xlsx
+++ b/Data/Season2/Encounters - Double observer - no distance (Responses).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="35">
   <si>
     <t>Timestamp</t>
   </si>
@@ -7004,6 +7004,206 @@
         <v>34</v>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>43328.50091184028</v>
+      </c>
+      <c r="B223" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>43328.50115063657</v>
+      </c>
+      <c r="B224" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>43328.50136325232</v>
+      </c>
+      <c r="B225" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E225" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>43328.50157587963</v>
+      </c>
+      <c r="B226" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E226" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>43328.50180258101</v>
+      </c>
+      <c r="B227" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>43328.5456141551</v>
+      </c>
+      <c r="B228" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G228" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>43328.545763449074</v>
+      </c>
+      <c r="B229" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G229" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>43328.54590118055</v>
+      </c>
+      <c r="B230" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G230" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>43328.54602976852</v>
+      </c>
+      <c r="B231" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G231" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>43328.54617332176</v>
+      </c>
+      <c r="B232" s="3">
+        <v>43327.0</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G232" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/Data/Season2/Encounters - Double observer - no distance (Responses).xlsx
+++ b/Data/Season2/Encounters - Double observer - no distance (Responses).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="37">
   <si>
     <t>Timestamp</t>
   </si>
@@ -132,6 +132,12 @@
   <si>
     <t xml:space="preserve">Horrible visibility! </t>
   </si>
+  <si>
+    <t>Shellfish, Broken shell</t>
+  </si>
+  <si>
+    <t>Roots</t>
+  </si>
 </sst>
 </file>
 
@@ -7204,6 +7210,2345 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>43334.70626708333</v>
+      </c>
+      <c r="B233" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F233" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="G233" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H233" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I233" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>43334.706593194445</v>
+      </c>
+      <c r="B234" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F234" s="1">
+        <v>11.71</v>
+      </c>
+      <c r="G234" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I234" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>43334.70688079861</v>
+      </c>
+      <c r="B235" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F235" s="1">
+        <v>11.54</v>
+      </c>
+      <c r="G235" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H235" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I235" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>43334.707152800926</v>
+      </c>
+      <c r="B236" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F236" s="1">
+        <v>12.13</v>
+      </c>
+      <c r="G236" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H236" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I236" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>43334.70798390046</v>
+      </c>
+      <c r="B237" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F237" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G237" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H237" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I237" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>43334.70822326389</v>
+      </c>
+      <c r="B238" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F238" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="G238" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H238" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I238" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>43334.70843925926</v>
+      </c>
+      <c r="B239" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F239" s="1">
+        <v>12.68</v>
+      </c>
+      <c r="G239" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H239" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="I239" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>43334.70872314815</v>
+      </c>
+      <c r="B240" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F240" s="1">
+        <v>13.54</v>
+      </c>
+      <c r="G240" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H240" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I240" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>43334.70893356482</v>
+      </c>
+      <c r="B241" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F241" s="1">
+        <v>13.85</v>
+      </c>
+      <c r="G241" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H241" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I241" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>43334.70915740741</v>
+      </c>
+      <c r="B242" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F242" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="G242" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H242" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="I242" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>43334.70937502314</v>
+      </c>
+      <c r="B243" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F243" s="1">
+        <v>14.27</v>
+      </c>
+      <c r="G243" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H243" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I243" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>43334.70972309027</v>
+      </c>
+      <c r="B244" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F244" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="G244" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H244" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I244" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>43334.71002059028</v>
+      </c>
+      <c r="B245" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E245" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F245" s="1">
+        <v>14.95</v>
+      </c>
+      <c r="G245" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H245" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I245" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>43334.7102297338</v>
+      </c>
+      <c r="B246" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F246" s="1">
+        <v>15.08</v>
+      </c>
+      <c r="G246" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H246" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I246" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>43334.71044703704</v>
+      </c>
+      <c r="B247" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F247" s="1">
+        <v>15.04</v>
+      </c>
+      <c r="G247" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H247" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I247" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>43334.710799803244</v>
+      </c>
+      <c r="B248" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F248" s="1">
+        <v>15.23</v>
+      </c>
+      <c r="G248" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H248" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I248" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>43334.710994953704</v>
+      </c>
+      <c r="B249" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F249" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G249" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H249" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I249" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>43334.711210208334</v>
+      </c>
+      <c r="B250" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F250" s="1">
+        <v>16.96</v>
+      </c>
+      <c r="G250" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H250" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I250" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>43334.71150949074</v>
+      </c>
+      <c r="B251" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F251" s="1">
+        <v>16.97</v>
+      </c>
+      <c r="G251" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H251" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="I251" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>43334.711789733796</v>
+      </c>
+      <c r="B252" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F252" s="1">
+        <v>17.65</v>
+      </c>
+      <c r="G252" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H252" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I252" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>43334.71203011574</v>
+      </c>
+      <c r="B253" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F253" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G253" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H253" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="I253" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>43334.715225023145</v>
+      </c>
+      <c r="B254" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F254" s="1">
+        <v>18.11</v>
+      </c>
+      <c r="G254" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H254" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I254" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>43334.71582898148</v>
+      </c>
+      <c r="B255" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F255" s="1">
+        <v>18.34</v>
+      </c>
+      <c r="G255" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H255" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I255" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>43334.71610883102</v>
+      </c>
+      <c r="B256" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F256" s="1">
+        <v>13.19</v>
+      </c>
+      <c r="G256" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H256" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I256" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>43334.716384259256</v>
+      </c>
+      <c r="B257" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F257" s="1">
+        <v>17.28</v>
+      </c>
+      <c r="G257" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H257" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I257" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>43334.71663137732</v>
+      </c>
+      <c r="B258" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F258" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="G258" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H258" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I258" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>43334.71705262731</v>
+      </c>
+      <c r="B259" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F259" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="G259" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H259" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I259" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>43334.717442546294</v>
+      </c>
+      <c r="B260" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F260" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="G260" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H260" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I260" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>43334.7177059838</v>
+      </c>
+      <c r="B261" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F261" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="G261" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H261" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I261" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>43334.71813483797</v>
+      </c>
+      <c r="B262" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F262" s="1">
+        <v>6.54</v>
+      </c>
+      <c r="G262" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H262" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I262" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>43334.7187212037</v>
+      </c>
+      <c r="B263" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F263" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="G263" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H263" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="I263" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>43334.71897777778</v>
+      </c>
+      <c r="B264" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F264" s="1">
+        <v>7.32</v>
+      </c>
+      <c r="G264" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H264" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I264" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>43334.71919268518</v>
+      </c>
+      <c r="B265" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F265" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="G265" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H265" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I265" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>43334.71938405093</v>
+      </c>
+      <c r="B266" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F266" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G266" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H266" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I266" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>43334.71961252315</v>
+      </c>
+      <c r="B267" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F267" s="1">
+        <v>8.83</v>
+      </c>
+      <c r="G267" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H267" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I267" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>43334.71979663194</v>
+      </c>
+      <c r="B268" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F268" s="1">
+        <v>9.49</v>
+      </c>
+      <c r="G268" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H268" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I268" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>43334.72002337963</v>
+      </c>
+      <c r="B269" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F269" s="1">
+        <v>9.53</v>
+      </c>
+      <c r="G269" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H269" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="I269" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>43334.720246620374</v>
+      </c>
+      <c r="B270" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F270" s="1">
+        <v>9.56</v>
+      </c>
+      <c r="G270" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H270" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I270" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>43334.72043295139</v>
+      </c>
+      <c r="B271" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F271" s="1">
+        <v>10.19</v>
+      </c>
+      <c r="G271" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H271" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I271" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2">
+        <v>43334.720681226856</v>
+      </c>
+      <c r="B272" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F272" s="1">
+        <v>11.38</v>
+      </c>
+      <c r="G272" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H272" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="I272" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>43334.721053472225</v>
+      </c>
+      <c r="B273" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F273" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="G273" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H273" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I273" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>43334.721279618054</v>
+      </c>
+      <c r="B274" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F274" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G274" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H274" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I274" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>43334.72148756945</v>
+      </c>
+      <c r="B275" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F275" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="G275" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H275" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I275" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>43334.72171373843</v>
+      </c>
+      <c r="B276" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F276" s="1">
+        <v>10.03</v>
+      </c>
+      <c r="G276" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H276" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I276" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>43334.72188981481</v>
+      </c>
+      <c r="B277" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F277" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="G277" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H277" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I277" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2">
+        <v>43334.72209377315</v>
+      </c>
+      <c r="B278" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F278" s="1">
+        <v>10.09</v>
+      </c>
+      <c r="G278" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H278" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I278" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>43334.72236347222</v>
+      </c>
+      <c r="B279" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F279" s="1">
+        <v>10.21</v>
+      </c>
+      <c r="G279" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H279" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="I279" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>43334.72257521991</v>
+      </c>
+      <c r="B280" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F280" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="G280" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H280" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I280" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>43334.72274520833</v>
+      </c>
+      <c r="B281" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F281" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="G281" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H281" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I281" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>43334.722962789354</v>
+      </c>
+      <c r="B282" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F282" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G282" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H282" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I282" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>43334.723204131944</v>
+      </c>
+      <c r="B283" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F283" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="G283" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H283" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I283" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>43334.723390520834</v>
+      </c>
+      <c r="B284" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E284" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F284" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G284" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H284" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I284" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>43334.72363896991</v>
+      </c>
+      <c r="B285" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F285" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="G285" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H285" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I285" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>43334.72382925926</v>
+      </c>
+      <c r="B286" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E286" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F286" s="1">
+        <v>7.53</v>
+      </c>
+      <c r="G286" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H286" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="I286" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>43334.72402253472</v>
+      </c>
+      <c r="B287" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F287" s="1">
+        <v>8.28</v>
+      </c>
+      <c r="G287" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H287" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I287" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>43334.724200833334</v>
+      </c>
+      <c r="B288" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F288" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="G288" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H288" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I288" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>43334.724371331016</v>
+      </c>
+      <c r="B289" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F289" s="1">
+        <v>9.84</v>
+      </c>
+      <c r="G289" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H289" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I289" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>43334.72462421296</v>
+      </c>
+      <c r="B290" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E290" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F290" s="1">
+        <v>9.69</v>
+      </c>
+      <c r="G290" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H290" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I290" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>43334.7851028125</v>
+      </c>
+      <c r="B291" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F291" s="1">
+        <v>11.13</v>
+      </c>
+      <c r="G291" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H291" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I291" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>43334.7854421875</v>
+      </c>
+      <c r="B292" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E292" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F292" s="1">
+        <v>12.86</v>
+      </c>
+      <c r="G292" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H292" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I292" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>43334.785694108796</v>
+      </c>
+      <c r="B293" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E293" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F293" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="G293" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H293" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I293" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>43334.78636197917</v>
+      </c>
+      <c r="B294" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F294" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="G294" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H294" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I294" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>43334.78667598379</v>
+      </c>
+      <c r="B295" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F295" s="1">
+        <v>15.92</v>
+      </c>
+      <c r="G295" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H295" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I295" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>43334.78699494213</v>
+      </c>
+      <c r="B296" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0.28</v>
+      </c>
+      <c r="G296" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H296" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I296" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>43334.787276689814</v>
+      </c>
+      <c r="B297" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F297" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="G297" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H297" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="I297" s="1">
+        <v>9.8</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>43334.787501493054</v>
+      </c>
+      <c r="B298" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F298" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="G298" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H298" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I298" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>43334.78778983797</v>
+      </c>
+      <c r="B299" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F299" s="1">
+        <v>4.06</v>
+      </c>
+      <c r="G299" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H299" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I299" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>43334.788065138884</v>
+      </c>
+      <c r="B300" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F300" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="G300" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H300" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I300" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>43334.788287731484</v>
+      </c>
+      <c r="B301" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E301" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F301" s="1">
+        <v>6.31</v>
+      </c>
+      <c r="G301" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H301" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I301" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>43334.78872303241</v>
+      </c>
+      <c r="B302" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F302" s="1">
+        <v>9.8</v>
+      </c>
+      <c r="G302" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H302" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I302" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>43334.78948039352</v>
+      </c>
+      <c r="B303" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F303" s="1">
+        <v>14.35</v>
+      </c>
+      <c r="G303" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H303" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="I303" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>43334.79047317129</v>
+      </c>
+      <c r="B304" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E304" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F304" s="1">
+        <v>17.82</v>
+      </c>
+      <c r="G304" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H304" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I304" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>43334.790778842595</v>
+      </c>
+      <c r="B305" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E305" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F305" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="G305" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H305" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I305" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/Data/Season2/Encounters - Double observer - no distance (Responses).xlsx
+++ b/Data/Season2/Encounters - Double observer - no distance (Responses).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="37">
   <si>
     <t>Timestamp</t>
   </si>
@@ -9549,6 +9549,2470 @@
         <v>14</v>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>43340.5489321875</v>
+      </c>
+      <c r="B306" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E306" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F306" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="G306" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H306" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I306" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>43340.5492619213</v>
+      </c>
+      <c r="B307" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E307" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F307" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="G307" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H307" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I307" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>43340.549503726856</v>
+      </c>
+      <c r="B308" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E308" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F308" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="G308" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H308" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I308" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>43340.54976334491</v>
+      </c>
+      <c r="B309" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E309" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F309" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G309" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H309" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I309" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>43340.55005395833</v>
+      </c>
+      <c r="B310" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E310" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F310" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="G310" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H310" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I310" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>43340.55029265046</v>
+      </c>
+      <c r="B311" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E311" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F311" s="1">
+        <v>12.97</v>
+      </c>
+      <c r="G311" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H311" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I311" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>43340.55089475695</v>
+      </c>
+      <c r="B312" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E312" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F312" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G312" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H312" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="I312" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>43340.5513678125</v>
+      </c>
+      <c r="B313" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E313" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F313" s="1">
+        <v>12.97</v>
+      </c>
+      <c r="G313" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H313" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I313" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>43340.55172545139</v>
+      </c>
+      <c r="B314" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E314" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F314" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="G314" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H314" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I314" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>43340.55318520834</v>
+      </c>
+      <c r="B315" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E315" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F315" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="G315" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H315" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I315" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>43340.55367334491</v>
+      </c>
+      <c r="B316" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E316" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F316" s="1">
+        <v>13.15</v>
+      </c>
+      <c r="G316" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H316" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I316" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>43340.56092202546</v>
+      </c>
+      <c r="B317" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E317" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F317" s="1">
+        <v>13.55</v>
+      </c>
+      <c r="G317" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H317" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I317" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>43340.563768437496</v>
+      </c>
+      <c r="B318" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E318" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F318" s="1">
+        <v>13.92</v>
+      </c>
+      <c r="G318" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H318" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="I318" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>43340.56405144676</v>
+      </c>
+      <c r="B319" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E319" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F319" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="G319" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H319" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I319" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>43340.564356435185</v>
+      </c>
+      <c r="B320" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E320" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F320" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G320" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H320" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I320" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>43340.56462957176</v>
+      </c>
+      <c r="B321" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E321" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F321" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="G321" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H321" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I321" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>43340.56502159723</v>
+      </c>
+      <c r="B322" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E322" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F322" s="1">
+        <v>14.85</v>
+      </c>
+      <c r="G322" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H322" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I322" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>43340.56537267361</v>
+      </c>
+      <c r="B323" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E323" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F323" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="G323" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H323" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I323" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>43340.56562273148</v>
+      </c>
+      <c r="B324" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E324" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F324" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="G324" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H324" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I324" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>43340.56592065972</v>
+      </c>
+      <c r="B325" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E325" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F325" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="G325" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H325" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I325" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>43340.566212777776</v>
+      </c>
+      <c r="B326" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E326" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F326" s="1">
+        <v>9.15</v>
+      </c>
+      <c r="G326" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H326" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I326" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>43340.56646460648</v>
+      </c>
+      <c r="B327" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E327" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F327" s="1">
+        <v>10.05</v>
+      </c>
+      <c r="G327" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H327" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I327" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>43340.56669731482</v>
+      </c>
+      <c r="B328" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E328" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F328" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="G328" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H328" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I328" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>43340.56706570602</v>
+      </c>
+      <c r="B329" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E329" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F329" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="G329" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H329" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I329" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>43340.567296284724</v>
+      </c>
+      <c r="B330" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E330" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F330" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G330" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H330" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I330" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>43340.56759471065</v>
+      </c>
+      <c r="B331" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E331" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F331" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G331" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H331" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="I331" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>43340.56787100695</v>
+      </c>
+      <c r="B332" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E332" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F332" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G332" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H332" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I332" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>43340.568276122685</v>
+      </c>
+      <c r="B333" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E333" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F333" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G333" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H333" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I333" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>43340.56856741898</v>
+      </c>
+      <c r="B334" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E334" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F334" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G334" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="H334" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="I334" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>43340.56893516204</v>
+      </c>
+      <c r="B335" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E335" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F335" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="G335" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H335" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="I335" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>43340.56916175926</v>
+      </c>
+      <c r="B336" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E336" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F336" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G336" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H336" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I336" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>43340.56939758101</v>
+      </c>
+      <c r="B337" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E337" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F337" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="G337" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H337" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I337" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>43340.56973290509</v>
+      </c>
+      <c r="B338" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E338" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F338" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G338" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H338" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="I338" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>43340.57003556713</v>
+      </c>
+      <c r="B339" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E339" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F339" s="1">
+        <v>10.55</v>
+      </c>
+      <c r="G339" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H339" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I339" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>43340.57027490741</v>
+      </c>
+      <c r="B340" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E340" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F340" s="1">
+        <v>10.55</v>
+      </c>
+      <c r="G340" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H340" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I340" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2">
+        <v>43340.57052378472</v>
+      </c>
+      <c r="B341" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E341" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F341" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="G341" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H341" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I341" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2">
+        <v>43340.57082635417</v>
+      </c>
+      <c r="B342" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E342" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F342" s="1">
+        <v>10.65</v>
+      </c>
+      <c r="G342" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H342" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I342" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2">
+        <v>43340.57107326388</v>
+      </c>
+      <c r="B343" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E343" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F343" s="1">
+        <v>10.95</v>
+      </c>
+      <c r="G343" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H343" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I343" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2">
+        <v>43340.57133572917</v>
+      </c>
+      <c r="B344" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E344" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F344" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="G344" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H344" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="I344" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2">
+        <v>43340.57158299768</v>
+      </c>
+      <c r="B345" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E345" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F345" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="G345" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H345" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="I345" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2">
+        <v>43340.57186659722</v>
+      </c>
+      <c r="B346" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E346" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F346" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="G346" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H346" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="I346" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2">
+        <v>43340.57212711805</v>
+      </c>
+      <c r="B347" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E347" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F347" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="G347" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H347" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I347" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>43340.572832233796</v>
+      </c>
+      <c r="B348" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E348" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F348" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G348" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H348" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I348" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2">
+        <v>43340.573330370375</v>
+      </c>
+      <c r="B349" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E349" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F349" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G349" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H349" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I349" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2">
+        <v>43340.57357655093</v>
+      </c>
+      <c r="B350" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E350" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F350" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G350" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H350" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="I350" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2">
+        <v>43340.57382273149</v>
+      </c>
+      <c r="B351" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E351" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F351" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="G351" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H351" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I351" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2">
+        <v>43340.57404814815</v>
+      </c>
+      <c r="B352" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E352" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F352" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G352" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H352" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="I352" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2">
+        <v>43340.57428475695</v>
+      </c>
+      <c r="B353" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E353" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F353" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G353" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H353" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I353" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2">
+        <v>43340.5746950926</v>
+      </c>
+      <c r="B354" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E354" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F354" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G354" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H354" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I354" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2">
+        <v>43340.57495086806</v>
+      </c>
+      <c r="B355" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E355" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F355" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G355" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H355" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I355" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2">
+        <v>43340.57519761574</v>
+      </c>
+      <c r="B356" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E356" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F356" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G356" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H356" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I356" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2">
+        <v>43340.57555988426</v>
+      </c>
+      <c r="B357" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E357" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F357" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G357" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H357" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I357" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2">
+        <v>43340.576011805555</v>
+      </c>
+      <c r="B358" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E358" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F358" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G358" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H358" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I358" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2">
+        <v>43340.5767400926</v>
+      </c>
+      <c r="B359" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E359" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F359" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G359" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H359" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I359" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2">
+        <v>43340.577140787034</v>
+      </c>
+      <c r="B360" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E360" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F360" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G360" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="H360" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="I360" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2">
+        <v>43340.57742858796</v>
+      </c>
+      <c r="B361" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E361" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F361" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G361" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="H361" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I361" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>43340.577735046296</v>
+      </c>
+      <c r="B362" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E362" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F362" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="G362" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H362" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I362" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2">
+        <v>43340.578598900465</v>
+      </c>
+      <c r="B363" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E363" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F363" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="G363" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="H363" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="I363" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>43340.57883733796</v>
+      </c>
+      <c r="B364" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E364" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F364" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G364" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H364" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I364" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>43340.579207627314</v>
+      </c>
+      <c r="B365" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E365" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F365" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="G365" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H365" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I365" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J365" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>43340.57942555555</v>
+      </c>
+      <c r="B366" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E366" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F366" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="G366" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H366" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I366" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J366" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>43340.57963555555</v>
+      </c>
+      <c r="B367" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E367" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F367" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G367" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H367" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I367" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2">
+        <v>43340.57988258102</v>
+      </c>
+      <c r="B368" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E368" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F368" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="G368" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H368" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="I368" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="J368" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2">
+        <v>43340.580173634255</v>
+      </c>
+      <c r="B369" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E369" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F369" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G369" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="H369" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="I369" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="J369" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2">
+        <v>43340.58042158565</v>
+      </c>
+      <c r="B370" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E370" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F370" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="G370" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H370" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="I370" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="J370" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2">
+        <v>43340.58063862269</v>
+      </c>
+      <c r="B371" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E371" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F371" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G371" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="H371" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I371" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="J371" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2">
+        <v>43340.580899016204</v>
+      </c>
+      <c r="B372" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E372" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F372" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="G372" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="H372" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="I372" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="J372" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2">
+        <v>43340.5811358912</v>
+      </c>
+      <c r="B373" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E373" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F373" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="G373" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H373" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I373" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J373" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>43340.581350127315</v>
+      </c>
+      <c r="B374" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E374" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F374" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G374" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H374" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I374" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J374" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2">
+        <v>43340.58165275463</v>
+      </c>
+      <c r="B375" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E375" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F375" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="G375" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="H375" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="I375" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="J375" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2">
+        <v>43340.58202152778</v>
+      </c>
+      <c r="B376" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E376" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F376" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="G376" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H376" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="I376" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2">
+        <v>43340.582297546294</v>
+      </c>
+      <c r="B377" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E377" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F377" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G377" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="H377" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="I377" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="J377" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2">
+        <v>43340.582539270836</v>
+      </c>
+      <c r="B378" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E378" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F378" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="G378" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="H378" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="I378" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="J378" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2">
+        <v>43340.58277903935</v>
+      </c>
+      <c r="B379" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E379" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F379" s="1">
+        <v>15.35</v>
+      </c>
+      <c r="G379" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="H379" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="I379" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="J379" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2">
+        <v>43340.58314880787</v>
+      </c>
+      <c r="B380" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E380" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F380" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="G380" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H380" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I380" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2">
+        <v>43340.58340236111</v>
+      </c>
+      <c r="B381" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E381" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F381" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="G381" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H381" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="I381" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2">
+        <v>43340.58362696759</v>
+      </c>
+      <c r="B382" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E382" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F382" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="G382" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H382" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I382" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/Data/Season2/Encounters - Double observer - no distance (Responses).xlsx
+++ b/Data/Season2/Encounters - Double observer - no distance (Responses).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="37">
   <si>
     <t>Timestamp</t>
   </si>
@@ -132,6 +132,12 @@
   <si>
     <t xml:space="preserve">Horrible visibility! </t>
   </si>
+  <si>
+    <t>Shellfish, Broken shell</t>
+  </si>
+  <si>
+    <t>Roots</t>
+  </si>
 </sst>
 </file>
 
@@ -7204,6 +7210,4809 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>43334.70626708333</v>
+      </c>
+      <c r="B233" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F233" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="G233" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H233" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I233" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>43334.706593194445</v>
+      </c>
+      <c r="B234" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F234" s="1">
+        <v>11.71</v>
+      </c>
+      <c r="G234" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I234" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>43334.70688079861</v>
+      </c>
+      <c r="B235" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F235" s="1">
+        <v>11.54</v>
+      </c>
+      <c r="G235" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H235" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I235" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>43334.707152800926</v>
+      </c>
+      <c r="B236" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F236" s="1">
+        <v>12.13</v>
+      </c>
+      <c r="G236" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H236" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I236" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>43334.70798390046</v>
+      </c>
+      <c r="B237" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F237" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="G237" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H237" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I237" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>43334.70822326389</v>
+      </c>
+      <c r="B238" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F238" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="G238" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H238" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I238" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>43334.70843925926</v>
+      </c>
+      <c r="B239" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F239" s="1">
+        <v>12.68</v>
+      </c>
+      <c r="G239" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H239" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="I239" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>43334.70872314815</v>
+      </c>
+      <c r="B240" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F240" s="1">
+        <v>13.54</v>
+      </c>
+      <c r="G240" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H240" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I240" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>43334.70893356482</v>
+      </c>
+      <c r="B241" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F241" s="1">
+        <v>13.85</v>
+      </c>
+      <c r="G241" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H241" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I241" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>43334.70915740741</v>
+      </c>
+      <c r="B242" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F242" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="G242" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H242" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="I242" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>43334.70937502314</v>
+      </c>
+      <c r="B243" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F243" s="1">
+        <v>14.27</v>
+      </c>
+      <c r="G243" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H243" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I243" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>43334.70972309027</v>
+      </c>
+      <c r="B244" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F244" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="G244" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H244" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I244" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>43334.71002059028</v>
+      </c>
+      <c r="B245" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E245" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F245" s="1">
+        <v>14.95</v>
+      </c>
+      <c r="G245" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H245" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I245" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>43334.7102297338</v>
+      </c>
+      <c r="B246" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F246" s="1">
+        <v>15.08</v>
+      </c>
+      <c r="G246" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H246" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I246" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>43334.71044703704</v>
+      </c>
+      <c r="B247" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F247" s="1">
+        <v>15.04</v>
+      </c>
+      <c r="G247" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H247" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I247" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>43334.710799803244</v>
+      </c>
+      <c r="B248" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F248" s="1">
+        <v>15.23</v>
+      </c>
+      <c r="G248" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H248" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I248" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>43334.710994953704</v>
+      </c>
+      <c r="B249" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F249" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="G249" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H249" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I249" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>43334.711210208334</v>
+      </c>
+      <c r="B250" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F250" s="1">
+        <v>16.96</v>
+      </c>
+      <c r="G250" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H250" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I250" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>43334.71150949074</v>
+      </c>
+      <c r="B251" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F251" s="1">
+        <v>16.97</v>
+      </c>
+      <c r="G251" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H251" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="I251" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>43334.711789733796</v>
+      </c>
+      <c r="B252" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F252" s="1">
+        <v>17.65</v>
+      </c>
+      <c r="G252" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H252" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I252" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>43334.71203011574</v>
+      </c>
+      <c r="B253" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F253" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="G253" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H253" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="I253" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>43334.715225023145</v>
+      </c>
+      <c r="B254" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F254" s="1">
+        <v>18.11</v>
+      </c>
+      <c r="G254" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H254" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I254" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>43334.71582898148</v>
+      </c>
+      <c r="B255" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F255" s="1">
+        <v>18.34</v>
+      </c>
+      <c r="G255" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H255" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I255" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>43334.71610883102</v>
+      </c>
+      <c r="B256" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F256" s="1">
+        <v>13.19</v>
+      </c>
+      <c r="G256" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H256" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I256" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>43334.716384259256</v>
+      </c>
+      <c r="B257" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F257" s="1">
+        <v>17.28</v>
+      </c>
+      <c r="G257" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="H257" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I257" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>43334.71663137732</v>
+      </c>
+      <c r="B258" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F258" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="G258" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H258" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I258" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>43334.71705262731</v>
+      </c>
+      <c r="B259" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F259" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="G259" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H259" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I259" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>43334.717442546294</v>
+      </c>
+      <c r="B260" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F260" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="G260" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H260" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I260" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>43334.7177059838</v>
+      </c>
+      <c r="B261" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F261" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="G261" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H261" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I261" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>43334.71813483797</v>
+      </c>
+      <c r="B262" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F262" s="1">
+        <v>6.54</v>
+      </c>
+      <c r="G262" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H262" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I262" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>43334.7187212037</v>
+      </c>
+      <c r="B263" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F263" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="G263" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H263" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="I263" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>43334.71897777778</v>
+      </c>
+      <c r="B264" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F264" s="1">
+        <v>7.32</v>
+      </c>
+      <c r="G264" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H264" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I264" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>43334.71919268518</v>
+      </c>
+      <c r="B265" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F265" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="G265" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H265" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I265" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>43334.71938405093</v>
+      </c>
+      <c r="B266" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F266" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G266" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H266" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I266" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>43334.71961252315</v>
+      </c>
+      <c r="B267" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F267" s="1">
+        <v>8.83</v>
+      </c>
+      <c r="G267" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H267" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I267" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>43334.71979663194</v>
+      </c>
+      <c r="B268" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F268" s="1">
+        <v>9.49</v>
+      </c>
+      <c r="G268" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H268" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I268" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>43334.72002337963</v>
+      </c>
+      <c r="B269" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F269" s="1">
+        <v>9.53</v>
+      </c>
+      <c r="G269" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H269" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="I269" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>43334.720246620374</v>
+      </c>
+      <c r="B270" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F270" s="1">
+        <v>9.56</v>
+      </c>
+      <c r="G270" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H270" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I270" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>43334.72043295139</v>
+      </c>
+      <c r="B271" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F271" s="1">
+        <v>10.19</v>
+      </c>
+      <c r="G271" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H271" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I271" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2">
+        <v>43334.720681226856</v>
+      </c>
+      <c r="B272" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F272" s="1">
+        <v>11.38</v>
+      </c>
+      <c r="G272" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H272" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="I272" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>43334.721053472225</v>
+      </c>
+      <c r="B273" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F273" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="G273" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H273" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I273" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>43334.721279618054</v>
+      </c>
+      <c r="B274" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F274" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G274" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H274" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I274" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>43334.72148756945</v>
+      </c>
+      <c r="B275" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F275" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="G275" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H275" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I275" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>43334.72171373843</v>
+      </c>
+      <c r="B276" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F276" s="1">
+        <v>10.03</v>
+      </c>
+      <c r="G276" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H276" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I276" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>43334.72188981481</v>
+      </c>
+      <c r="B277" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F277" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="G277" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H277" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I277" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2">
+        <v>43334.72209377315</v>
+      </c>
+      <c r="B278" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F278" s="1">
+        <v>10.09</v>
+      </c>
+      <c r="G278" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H278" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I278" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>43334.72236347222</v>
+      </c>
+      <c r="B279" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F279" s="1">
+        <v>10.21</v>
+      </c>
+      <c r="G279" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H279" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="I279" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>43334.72257521991</v>
+      </c>
+      <c r="B280" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F280" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="G280" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H280" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I280" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>43334.72274520833</v>
+      </c>
+      <c r="B281" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F281" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="G281" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H281" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I281" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>43334.722962789354</v>
+      </c>
+      <c r="B282" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F282" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G282" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H282" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I282" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>43334.723204131944</v>
+      </c>
+      <c r="B283" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F283" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="G283" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H283" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I283" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>43334.723390520834</v>
+      </c>
+      <c r="B284" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E284" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F284" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G284" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H284" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I284" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>43334.72363896991</v>
+      </c>
+      <c r="B285" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F285" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="G285" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H285" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I285" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>43334.72382925926</v>
+      </c>
+      <c r="B286" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E286" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F286" s="1">
+        <v>7.53</v>
+      </c>
+      <c r="G286" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H286" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="I286" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>43334.72402253472</v>
+      </c>
+      <c r="B287" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F287" s="1">
+        <v>8.28</v>
+      </c>
+      <c r="G287" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H287" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I287" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>43334.724200833334</v>
+      </c>
+      <c r="B288" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F288" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="G288" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H288" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I288" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>43334.724371331016</v>
+      </c>
+      <c r="B289" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F289" s="1">
+        <v>9.84</v>
+      </c>
+      <c r="G289" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H289" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I289" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>43334.72462421296</v>
+      </c>
+      <c r="B290" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E290" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F290" s="1">
+        <v>9.69</v>
+      </c>
+      <c r="G290" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H290" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I290" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>43334.7851028125</v>
+      </c>
+      <c r="B291" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F291" s="1">
+        <v>11.13</v>
+      </c>
+      <c r="G291" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H291" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I291" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>43334.7854421875</v>
+      </c>
+      <c r="B292" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E292" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F292" s="1">
+        <v>12.86</v>
+      </c>
+      <c r="G292" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H292" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I292" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>43334.785694108796</v>
+      </c>
+      <c r="B293" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E293" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F293" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="G293" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H293" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I293" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>43334.78636197917</v>
+      </c>
+      <c r="B294" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F294" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="G294" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H294" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I294" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>43334.78667598379</v>
+      </c>
+      <c r="B295" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F295" s="1">
+        <v>15.92</v>
+      </c>
+      <c r="G295" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H295" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I295" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>43334.78699494213</v>
+      </c>
+      <c r="B296" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0.28</v>
+      </c>
+      <c r="G296" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H296" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I296" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>43334.787276689814</v>
+      </c>
+      <c r="B297" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F297" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="G297" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H297" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="I297" s="1">
+        <v>9.8</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>43334.787501493054</v>
+      </c>
+      <c r="B298" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F298" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="G298" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H298" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I298" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>43334.78778983797</v>
+      </c>
+      <c r="B299" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F299" s="1">
+        <v>4.06</v>
+      </c>
+      <c r="G299" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H299" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I299" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>43334.788065138884</v>
+      </c>
+      <c r="B300" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F300" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="G300" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H300" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I300" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>43334.788287731484</v>
+      </c>
+      <c r="B301" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E301" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F301" s="1">
+        <v>6.31</v>
+      </c>
+      <c r="G301" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H301" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I301" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>43334.78872303241</v>
+      </c>
+      <c r="B302" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F302" s="1">
+        <v>9.8</v>
+      </c>
+      <c r="G302" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H302" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I302" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>43334.78948039352</v>
+      </c>
+      <c r="B303" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F303" s="1">
+        <v>14.35</v>
+      </c>
+      <c r="G303" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H303" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="I303" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>43334.79047317129</v>
+      </c>
+      <c r="B304" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E304" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F304" s="1">
+        <v>17.82</v>
+      </c>
+      <c r="G304" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H304" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I304" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>43334.790778842595</v>
+      </c>
+      <c r="B305" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E305" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F305" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="G305" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H305" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I305" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>43340.5489321875</v>
+      </c>
+      <c r="B306" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E306" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F306" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="G306" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H306" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I306" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>43340.5492619213</v>
+      </c>
+      <c r="B307" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E307" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F307" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="G307" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H307" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I307" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>43340.549503726856</v>
+      </c>
+      <c r="B308" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E308" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F308" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="G308" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H308" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I308" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>43340.54976334491</v>
+      </c>
+      <c r="B309" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E309" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F309" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G309" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H309" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I309" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>43340.55005395833</v>
+      </c>
+      <c r="B310" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E310" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F310" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="G310" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H310" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I310" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>43340.55029265046</v>
+      </c>
+      <c r="B311" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E311" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F311" s="1">
+        <v>12.97</v>
+      </c>
+      <c r="G311" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H311" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I311" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>43340.55089475695</v>
+      </c>
+      <c r="B312" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E312" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F312" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G312" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H312" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="I312" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>43340.5513678125</v>
+      </c>
+      <c r="B313" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E313" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F313" s="1">
+        <v>12.97</v>
+      </c>
+      <c r="G313" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H313" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I313" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>43340.55172545139</v>
+      </c>
+      <c r="B314" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E314" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F314" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="G314" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H314" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I314" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>43340.55318520834</v>
+      </c>
+      <c r="B315" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E315" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F315" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="G315" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H315" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I315" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>43340.55367334491</v>
+      </c>
+      <c r="B316" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E316" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F316" s="1">
+        <v>13.15</v>
+      </c>
+      <c r="G316" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H316" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I316" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>43340.56092202546</v>
+      </c>
+      <c r="B317" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E317" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F317" s="1">
+        <v>13.55</v>
+      </c>
+      <c r="G317" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H317" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I317" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>43340.563768437496</v>
+      </c>
+      <c r="B318" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E318" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F318" s="1">
+        <v>13.92</v>
+      </c>
+      <c r="G318" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H318" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="I318" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>43340.56405144676</v>
+      </c>
+      <c r="B319" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E319" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="F319" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="G319" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H319" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I319" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>43340.564356435185</v>
+      </c>
+      <c r="B320" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E320" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F320" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G320" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H320" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I320" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>43340.56462957176</v>
+      </c>
+      <c r="B321" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E321" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F321" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="G321" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H321" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I321" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>43340.56502159723</v>
+      </c>
+      <c r="B322" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E322" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F322" s="1">
+        <v>14.85</v>
+      </c>
+      <c r="G322" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H322" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I322" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>43340.56537267361</v>
+      </c>
+      <c r="B323" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E323" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F323" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="G323" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H323" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I323" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>43340.56562273148</v>
+      </c>
+      <c r="B324" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E324" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F324" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="G324" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H324" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I324" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>43340.56592065972</v>
+      </c>
+      <c r="B325" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E325" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F325" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="G325" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H325" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="I325" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>43340.566212777776</v>
+      </c>
+      <c r="B326" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E326" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F326" s="1">
+        <v>9.15</v>
+      </c>
+      <c r="G326" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H326" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I326" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>43340.56646460648</v>
+      </c>
+      <c r="B327" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E327" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F327" s="1">
+        <v>10.05</v>
+      </c>
+      <c r="G327" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H327" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I327" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>43340.56669731482</v>
+      </c>
+      <c r="B328" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E328" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F328" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="G328" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H328" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I328" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>43340.56706570602</v>
+      </c>
+      <c r="B329" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E329" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F329" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="G329" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H329" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I329" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>43340.567296284724</v>
+      </c>
+      <c r="B330" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E330" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="F330" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G330" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H330" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I330" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>43340.56759471065</v>
+      </c>
+      <c r="B331" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E331" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F331" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G331" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H331" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="I331" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>43340.56787100695</v>
+      </c>
+      <c r="B332" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E332" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F332" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G332" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H332" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I332" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>43340.568276122685</v>
+      </c>
+      <c r="B333" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E333" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F333" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G333" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H333" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I333" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>43340.56856741898</v>
+      </c>
+      <c r="B334" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E334" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F334" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="G334" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="H334" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="I334" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>43340.56893516204</v>
+      </c>
+      <c r="B335" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E335" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F335" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="G335" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H335" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="I335" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>43340.56916175926</v>
+      </c>
+      <c r="B336" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E336" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F336" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G336" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H336" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I336" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>43340.56939758101</v>
+      </c>
+      <c r="B337" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E337" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F337" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="G337" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H337" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I337" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>43340.56973290509</v>
+      </c>
+      <c r="B338" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E338" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F338" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G338" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H338" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="I338" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>43340.57003556713</v>
+      </c>
+      <c r="B339" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E339" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F339" s="1">
+        <v>10.55</v>
+      </c>
+      <c r="G339" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H339" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I339" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>43340.57027490741</v>
+      </c>
+      <c r="B340" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E340" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F340" s="1">
+        <v>10.55</v>
+      </c>
+      <c r="G340" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H340" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I340" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2">
+        <v>43340.57052378472</v>
+      </c>
+      <c r="B341" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E341" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F341" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="G341" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H341" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I341" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2">
+        <v>43340.57082635417</v>
+      </c>
+      <c r="B342" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E342" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F342" s="1">
+        <v>10.65</v>
+      </c>
+      <c r="G342" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H342" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I342" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2">
+        <v>43340.57107326388</v>
+      </c>
+      <c r="B343" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E343" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F343" s="1">
+        <v>10.95</v>
+      </c>
+      <c r="G343" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H343" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I343" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2">
+        <v>43340.57133572917</v>
+      </c>
+      <c r="B344" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E344" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="F344" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="G344" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H344" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="I344" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2">
+        <v>43340.57158299768</v>
+      </c>
+      <c r="B345" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E345" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F345" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="G345" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H345" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="I345" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2">
+        <v>43340.57186659722</v>
+      </c>
+      <c r="B346" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E346" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F346" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="G346" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H346" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="I346" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2">
+        <v>43340.57212711805</v>
+      </c>
+      <c r="B347" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E347" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F347" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="G347" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H347" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I347" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>43340.572832233796</v>
+      </c>
+      <c r="B348" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E348" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F348" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G348" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H348" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I348" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2">
+        <v>43340.573330370375</v>
+      </c>
+      <c r="B349" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E349" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F349" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G349" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H349" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I349" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2">
+        <v>43340.57357655093</v>
+      </c>
+      <c r="B350" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E350" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F350" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G350" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H350" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="I350" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2">
+        <v>43340.57382273149</v>
+      </c>
+      <c r="B351" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E351" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F351" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="G351" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H351" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I351" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2">
+        <v>43340.57404814815</v>
+      </c>
+      <c r="B352" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E352" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F352" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G352" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H352" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="I352" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2">
+        <v>43340.57428475695</v>
+      </c>
+      <c r="B353" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E353" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F353" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G353" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H353" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I353" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2">
+        <v>43340.5746950926</v>
+      </c>
+      <c r="B354" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E354" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F354" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G354" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H354" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I354" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2">
+        <v>43340.57495086806</v>
+      </c>
+      <c r="B355" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E355" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F355" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G355" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H355" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I355" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2">
+        <v>43340.57519761574</v>
+      </c>
+      <c r="B356" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E356" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F356" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G356" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H356" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I356" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2">
+        <v>43340.57555988426</v>
+      </c>
+      <c r="B357" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E357" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F357" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G357" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="H357" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I357" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2">
+        <v>43340.576011805555</v>
+      </c>
+      <c r="B358" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E358" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F358" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G358" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H358" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I358" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2">
+        <v>43340.5767400926</v>
+      </c>
+      <c r="B359" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E359" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F359" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G359" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H359" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I359" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2">
+        <v>43340.577140787034</v>
+      </c>
+      <c r="B360" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E360" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F360" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G360" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="H360" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="I360" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2">
+        <v>43340.57742858796</v>
+      </c>
+      <c r="B361" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E361" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F361" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G361" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="H361" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I361" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>43340.577735046296</v>
+      </c>
+      <c r="B362" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E362" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F362" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="G362" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H362" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I362" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2">
+        <v>43340.578598900465</v>
+      </c>
+      <c r="B363" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E363" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F363" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="G363" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="H363" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="I363" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>43340.57883733796</v>
+      </c>
+      <c r="B364" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E364" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F364" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G364" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H364" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I364" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>43340.579207627314</v>
+      </c>
+      <c r="B365" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E365" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F365" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="G365" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H365" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I365" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J365" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>43340.57942555555</v>
+      </c>
+      <c r="B366" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E366" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F366" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="G366" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H366" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I366" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J366" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>43340.57963555555</v>
+      </c>
+      <c r="B367" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E367" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F367" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G367" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H367" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I367" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2">
+        <v>43340.57988258102</v>
+      </c>
+      <c r="B368" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E368" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F368" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="G368" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="H368" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="I368" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="J368" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2">
+        <v>43340.580173634255</v>
+      </c>
+      <c r="B369" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E369" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F369" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G369" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="H369" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="I369" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="J369" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2">
+        <v>43340.58042158565</v>
+      </c>
+      <c r="B370" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E370" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F370" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="G370" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H370" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="I370" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="J370" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2">
+        <v>43340.58063862269</v>
+      </c>
+      <c r="B371" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E371" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F371" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="G371" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="H371" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I371" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="J371" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2">
+        <v>43340.580899016204</v>
+      </c>
+      <c r="B372" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E372" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F372" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="G372" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="H372" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="I372" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="J372" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2">
+        <v>43340.5811358912</v>
+      </c>
+      <c r="B373" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E373" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F373" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="G373" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H373" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I373" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J373" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>43340.581350127315</v>
+      </c>
+      <c r="B374" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E374" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F374" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="G374" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H374" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I374" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J374" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2">
+        <v>43340.58165275463</v>
+      </c>
+      <c r="B375" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E375" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F375" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="G375" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="H375" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="I375" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="J375" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2">
+        <v>43340.58202152778</v>
+      </c>
+      <c r="B376" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E376" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F376" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="G376" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H376" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="I376" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2">
+        <v>43340.582297546294</v>
+      </c>
+      <c r="B377" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E377" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F377" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="G377" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="H377" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="I377" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="J377" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2">
+        <v>43340.582539270836</v>
+      </c>
+      <c r="B378" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E378" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F378" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="G378" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="H378" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="I378" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="J378" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2">
+        <v>43340.58277903935</v>
+      </c>
+      <c r="B379" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E379" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F379" s="1">
+        <v>15.35</v>
+      </c>
+      <c r="G379" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="H379" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="I379" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="J379" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2">
+        <v>43340.58314880787</v>
+      </c>
+      <c r="B380" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E380" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F380" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="G380" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="H380" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I380" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2">
+        <v>43340.58340236111</v>
+      </c>
+      <c r="B381" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E381" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F381" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="G381" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="H381" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="I381" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2">
+        <v>43340.58362696759</v>
+      </c>
+      <c r="B382" s="3">
+        <v>43333.0</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E382" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F382" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="G382" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H382" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I382" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
